--- a/public/exported.xlsx
+++ b/public/exported.xlsx
@@ -28,7 +28,7 @@
     <t>admin</t>
   </si>
   <si>
-    <t>vvv</t>
+    <t>XXX</t>
   </si>
   <si>
     <t>8/16/2025, 10:30:09 AM</t>
